--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>543042.0672121373</v>
+        <v>585453.3170060089</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433859.31651125</v>
+        <v>12521087.91900264</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6544539.720854482</v>
+        <v>7541126.413445116</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9516242.476282004</v>
+        <v>9023032.748804763</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.396723986041062</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>159.3985590094785</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V4" t="n">
-        <v>163.7692983795752</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>161.8294550022484</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>67.94354586535445</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>104.881441273314</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>66.59911941166067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X7" t="n">
-        <v>199.7354794673643</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.654142996631617</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>92.7267998291469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>26.40776503919764</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>64.788878076468</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V10" t="n">
-        <v>136.8917226135564</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>104.83479254017</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.5944732736871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>117.3713495108174</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>95.18210613190911</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>363.5277165279891</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>183.1642512458443</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>36.15999212057498</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>55.37292366924323</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>34.16966515648334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>4.043187116398963</v>
+        <v>139.5498318922617</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>201.6086852141641</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>12.17971300739656</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.6980411577373</v>
+        <v>40.7910003348539</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,16 +2320,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>394.2071006265878</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>33.24139751941249</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>244.1585067258839</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>324.0636617256142</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>105.284594164307</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T28" t="n">
-        <v>104.7906844222652</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>307.9492910885714</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.86676627008424</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.4425172951288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>335.6244028937394</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>33.3830437605888</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>131.573039120795</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>55.35544082417905</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>43.95604371558838</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>319.4167262166212</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>63.72703424640825</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>86.37868314456227</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>199.7325946875374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>310.4847784432058</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>61.60385878691257</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>105.962660793583</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>58.92805047992029</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>61.08019102731642</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.4425172951288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.6636901231396</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>178.620322860039</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>42.3206982334428</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.2300801016545</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344764</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672985</v>
+        <v>400.302954365912</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0971104001205</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.46338433294301</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.46338433294301</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>347.1218190644748</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>509.495204112382</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>649.4845259985572</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442525</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U3" t="n">
-        <v>678.7019123801329</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="V3" t="n">
-        <v>443.5498041483902</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="W3" t="n">
-        <v>189.3124474201885</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X3" t="n">
-        <v>189.3124474201885</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.3124474201885</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>465.2530182692146</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>587.3641452287285</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512191</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="U4" t="n">
-        <v>452.8983006840411</v>
+        <v>557.3057129681416</v>
       </c>
       <c r="V4" t="n">
-        <v>287.4747669672985</v>
+        <v>367.8859279516571</v>
       </c>
       <c r="W4" t="n">
-        <v>21.0971104001205</v>
+        <v>178.4661429351726</v>
       </c>
       <c r="X4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1158.127597939135</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C5" t="n">
-        <v>1158.127597939135</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D5" t="n">
-        <v>799.8618993323844</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E5" t="n">
-        <v>414.0736467341401</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F5" t="n">
-        <v>414.0736467341401</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G5" t="n">
-        <v>414.0736467341401</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H5" t="n">
-        <v>102.3590553709974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I5" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>107.8290791267618</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>269.6240911917569</v>
+        <v>80.81213159058916</v>
       </c>
       <c r="L5" t="n">
-        <v>507.2468724099484</v>
+        <v>191.874309407918</v>
       </c>
       <c r="M5" t="n">
-        <v>803.3174389675509</v>
+        <v>347.1218190644748</v>
       </c>
       <c r="N5" t="n">
-        <v>1108.792545203136</v>
+        <v>509.4952041123818</v>
       </c>
       <c r="O5" t="n">
-        <v>1383.90876451977</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P5" t="n">
-        <v>1584.213091808873</v>
+        <v>734.4611726020255</v>
       </c>
       <c r="Q5" t="n">
-        <v>1686.460553127927</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>1686.460553127927</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003257</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T5" t="n">
-        <v>1544.727438003257</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U5" t="n">
-        <v>1544.727438003257</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V5" t="n">
-        <v>1544.727438003257</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W5" t="n">
-        <v>1544.727438003257</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X5" t="n">
-        <v>1544.727438003257</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1544.727438003257</v>
+        <v>560.682563648794</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>537.8487739561704</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C6" t="n">
-        <v>363.3957446750434</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D6" t="n">
-        <v>214.4613350137921</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E6" t="n">
-        <v>214.4613350137921</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F6" t="n">
-        <v>67.92677704067708</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G6" t="n">
-        <v>67.92677704067708</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I6" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J6" t="n">
-        <v>59.04473788968937</v>
+        <v>15.00204697330519</v>
       </c>
       <c r="K6" t="n">
-        <v>180.4678301599682</v>
+        <v>67.13418877024165</v>
       </c>
       <c r="L6" t="n">
-        <v>390.0587034127988</v>
+        <v>183.5548280772643</v>
       </c>
       <c r="M6" t="n">
-        <v>653.9982349082861</v>
+        <v>338.7690911140237</v>
       </c>
       <c r="N6" t="n">
-        <v>939.3321053416188</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O6" t="n">
-        <v>1178.137057093077</v>
+        <v>649.2101578476338</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>739.5989987017051</v>
       </c>
       <c r="Q6" t="n">
-        <v>1686.460553127927</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>1686.460553127927</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T6" t="n">
-        <v>1490.841830594768</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="U6" t="n">
-        <v>1262.725413725739</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="V6" t="n">
-        <v>1027.573305493996</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="W6" t="n">
-        <v>773.3359487657947</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="X6" t="n">
-        <v>773.3359487657947</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="Y6" t="n">
-        <v>706.0641109762385</v>
+        <v>644.1614988942544</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J7" t="n">
-        <v>35.96388306992289</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>169.472972355726</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>395.84507567387</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M7" t="n">
-        <v>644.9118420064103</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N7" t="n">
-        <v>893.4909737490111</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O7" t="n">
-        <v>1107.077740097166</v>
+        <v>721.9284911143035</v>
       </c>
       <c r="P7" t="n">
-        <v>1266.31743473321</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q7" t="n">
-        <v>1293.13166510086</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T7" t="n">
-        <v>1068.720505876298</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="U7" t="n">
-        <v>779.5838788684002</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="V7" t="n">
-        <v>524.8993906625134</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W7" t="n">
-        <v>235.4822206255528</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>891.5908846145765</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="C8" t="n">
-        <v>891.5908846145765</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="D8" t="n">
-        <v>533.3251860078259</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="E8" t="n">
-        <v>533.3251860078259</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>381.107857099194</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>262.3106962605492</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>449.0101090859564</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>643.3443219779383</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>813.5133472948974</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>717.0015419180338</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>717.0015419180338</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>717.0015419180338</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182945</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="Y8" t="n">
-        <v>901.3425442071336</v>
+        <v>623.3381077471784</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>86.7924555146772</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>290.1388331607135</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>469.636169515318</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>668.2929111679823</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>827.8052238367427</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>936.4948513640413</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>731.093005077184</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>495.9408968454413</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>253.7106461974569</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>45.85914599192404</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>45.85914599192404</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>232.541040622065</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>232.541040622065</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>232.541040622065</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>84.62794703967188</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>84.62794703967188</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>84.62794703967188</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>656.2710011584441</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>830.3658965470428</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>955.8134731456583</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>717.0015419180338</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>474.7712912700494</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>232.541040622065</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>232.541040622065</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>232.541040622065</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.321240915451</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5056,37 +5056,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535336</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>1647.321240915451</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>528.5554336401428</v>
+        <v>498.989058537402</v>
       </c>
       <c r="C13" t="n">
-        <v>359.619250712236</v>
+        <v>498.989058537402</v>
       </c>
       <c r="D13" t="n">
-        <v>359.619250712236</v>
+        <v>498.989058537402</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>498.989058537402</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1038.765182820634</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W13" t="n">
-        <v>749.348012783673</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X13" t="n">
-        <v>749.348012783673</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="Y13" t="n">
-        <v>528.5554336401428</v>
+        <v>680.6375233676417</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5311,19 +5311,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2824.323010322666</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2824.323010322666</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2824.323010322666</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X14" t="n">
-        <v>2824.323010322666</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y14" t="n">
-        <v>2434.183678346854</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>271.9735439263277</v>
+        <v>182.143086683856</v>
       </c>
       <c r="C16" t="n">
-        <v>103.0373609984208</v>
+        <v>182.143086683856</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>182.143086683856</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>182.143086683856</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>182.143086683856</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U16" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V16" t="n">
-        <v>1191.821308835076</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W16" t="n">
-        <v>902.4041387981149</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X16" t="n">
-        <v>674.4145879000976</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y16" t="n">
-        <v>453.6220087565674</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1647.321240915451</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C17" t="n">
-        <v>1278.358723975039</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
         <v>892.5704713767946</v>
@@ -5506,25 +5506,25 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3269.673575478621</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3063.695827862844</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3063.695827862844</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2732.632940519273</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2379.864285249158</v>
       </c>
       <c r="X17" t="n">
-        <v>2037.460572891262</v>
+        <v>2006.398526988078</v>
       </c>
       <c r="Y17" t="n">
-        <v>1647.321240915451</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>684.4520072430315</v>
+        <v>504.4781294962293</v>
       </c>
       <c r="C19" t="n">
-        <v>515.5158243151246</v>
+        <v>504.4781294962293</v>
       </c>
       <c r="D19" t="n">
-        <v>365.3991849027889</v>
+        <v>354.3614900838935</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4860913203958</v>
+        <v>354.3614900838935</v>
       </c>
       <c r="F19" t="n">
-        <v>70.5961438224854</v>
+        <v>207.4715425859831</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971289</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X19" t="n">
-        <v>866.1004720732712</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y19" t="n">
-        <v>866.1004720732712</v>
+        <v>686.126594326469</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1177.259159988176</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>791.4709073899314</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>791.4709073899314</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>376.3984572349279</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>78.81485684369511</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102165</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>651.5308283972846</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C22" t="n">
-        <v>651.5308283972846</v>
+        <v>254.6050945713604</v>
       </c>
       <c r="D22" t="n">
-        <v>501.4141889849489</v>
+        <v>254.6050945713604</v>
       </c>
       <c r="E22" t="n">
-        <v>353.5010954025557</v>
+        <v>254.6050945713604</v>
       </c>
       <c r="F22" t="n">
-        <v>206.6111479046454</v>
+        <v>107.71514707345</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5952,10 +5952,10 @@
         <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>872.3234075408147</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y22" t="n">
-        <v>651.5308283972846</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796252</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C23" t="n">
-        <v>921.7704558796252</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D23" t="n">
-        <v>921.7704558796252</v>
+        <v>900.949988396959</v>
       </c>
       <c r="E23" t="n">
-        <v>921.7704558796252</v>
+        <v>515.1617357987147</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>515.1617357987147</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>100.0892856437112</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>100.0892856437112</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6007,34 +6007,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O25" t="n">
         <v>1617.076751502319</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T25" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U25" t="n">
-        <v>1241.044369546818</v>
+        <v>1267.217294216276</v>
       </c>
       <c r="V25" t="n">
-        <v>986.3598813409312</v>
+        <v>1267.217294216276</v>
       </c>
       <c r="W25" t="n">
-        <v>696.9427113039706</v>
+        <v>977.8001241793154</v>
       </c>
       <c r="X25" t="n">
-        <v>468.9531604059532</v>
+        <v>749.810573281298</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1091.323932370578</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C26" t="n">
-        <v>722.3614154301667</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D26" t="n">
-        <v>364.0957168234162</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296687</v>
@@ -6268,10 +6268,10 @@
         <v>2182.266054653545</v>
       </c>
       <c r="X26" t="n">
-        <v>1808.800296392465</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y26" t="n">
-        <v>1418.660964416653</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218343</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T28" t="n">
-        <v>1539.929030488741</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>1539.929030488741</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>1539.929030488741</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>1250.51186045178</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.51186045178</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1594.601034732593</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C29" t="n">
-        <v>1225.638517792182</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X29" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y29" t="n">
-        <v>1981.200874796715</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696239</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1845.410930903096</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C32" t="n">
-        <v>1476.448413962685</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>1118.182715355934</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>1118.182715355934</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6709,7 +6709,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2961.784676410102</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W32" t="n">
-        <v>2609.016021139988</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X32" t="n">
-        <v>2235.550262878908</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.410930903096</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>441.479525463516</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C34" t="n">
-        <v>272.5433425356091</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>122.4267031232734</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E34" t="n">
-        <v>122.4267031232734</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1071.910120335303</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>1071.910120335303</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>843.9205694372858</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y34" t="n">
-        <v>623.1279902937557</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1250.836169983545</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.836169983545</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D35" t="n">
-        <v>892.5704713767946</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X35" t="n">
-        <v>2027.575342023478</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y35" t="n">
-        <v>1637.436010047667</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7083,16 +7083,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1862.923806425454</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1573.820939551098</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1319.136451345211</v>
+        <v>1137.487986514971</v>
       </c>
       <c r="W37" t="n">
-        <v>1029.71928130825</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X37" t="n">
-        <v>1029.71928130825</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1179.52858457759</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C38" t="n">
-        <v>810.5660676371781</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D38" t="n">
-        <v>452.3003690304276</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218342</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7174,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3013.565057492288</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3013.565057492288</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>2682.502170148718</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W38" t="n">
-        <v>2329.733514878603</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X38" t="n">
-        <v>1956.267756617523</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y38" t="n">
-        <v>1566.128424641711</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>275.6281839168741</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>128.7382364189638</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696239</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.8553933260938</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1381.278680221567</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1012.316163281155</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1012.316163281155</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>626.5279106829112</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>215.5420058933036</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>215.5420058933036</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792695</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W41" t="n">
-        <v>2531.48361052258</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2158.017852261501</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1767.878520285689</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>573.1289595786776</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>423.0123201663419</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>275.0992265839487</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>128.2092790860384</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7608,13 +7608,13 @@
         <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696239</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7666,7 +7666,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7681,19 +7681,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2961.784676410102</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W44" t="n">
-        <v>2609.016021139988</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2235.550262878908</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>2005.586939522201</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7806,16 +7806,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610488</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046014</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676408</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X46" t="n">
-        <v>637.8893433338602</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y46" t="n">
-        <v>417.0967641903301</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>99.67938739116948</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.19461818159743</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>63.37360602116112</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777581</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241562</v>
+        <v>66.78462588923495</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>111.3252676074454</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.454656158154</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>119.0745931339337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>66.45592849407615</v>
+        <v>60.69123123399663</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117128</v>
+        <v>98.73949432713064</v>
       </c>
       <c r="V4" t="n">
-        <v>88.36834494425284</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>63.8802003867888</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>217.5613044873863</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>26.29660169349722</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.3652991436814</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22871,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.77881175550659</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714241</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>90.5281565186873</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>139.0835763656437</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553087</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845829</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>58.5471363140058</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>98.73949432713064</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X7" t="n">
-        <v>25.97417592167287</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>373.079698666849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>167.0680976002069</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>173.1089558044322</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>11.34683808079609</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>277.0043008493221</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>140.1254186106697</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>11.88703501941507</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>87.92321859276458</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.45270651659246</v>
       </c>
       <c r="V10" t="n">
-        <v>115.2459207102716</v>
+        <v>12.32969518232346</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>46.71505019508646</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>249.8482490805129</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.6434653823665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.04969851211384</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>156.9555371919189</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.745175243018423</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>67.83092071305768</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>112.4554808976374</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>51.55114770987242</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>53.81483811893261</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>335.5614355219857</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>161.9826211426293</v>
+        <v>26.4759763667665</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>181.1251564493165</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>29.39721676552939</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.3277671012909</v>
+        <v>125.2348079241743</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>12.66894511512362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.335532253513428</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>42.05333147972897</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.67017993786641</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>280.9533444917466</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T28" t="n">
-        <v>114.758264853904</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>57.32360068243611</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.3711723859693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>71.25164284797205</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>294.3692147095461</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>35.67378197783279</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>90.06560719875219</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>325.7750569628806</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>66.82121243943243</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>155.8219150297609</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>165.7589601792657</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>4.185375452082781</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>75.75316021284777</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>104.4219494721157</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>188.6451035937374</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>268.8242079902146</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>104.9456172317118</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.14213605696602</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>310.40113776314</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>158.5742485329139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>107.5915153455739</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>183.3889571555943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533535.276715002</v>
+        <v>470601.0454114968</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>645018.6546636448</v>
+        <v>470601.0454114969</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>798289.7084872781</v>
+        <v>514298.0454479979</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878691.7618510326</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.761851033</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.761851033</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.761851033</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>234651.8339453227</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>290673.0489695932</v>
+        <v>186902.5922223888</v>
       </c>
       <c r="E2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="G2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="H2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="H2" t="n">
-        <v>323947.2440223746</v>
-      </c>
       <c r="I2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223747</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
@@ -26346,16 +26346,16 @@
         <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="N2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>174787.7031330586</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225670.6156307091</v>
+        <v>54784.37480766079</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>575366.1973577674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911419</v>
+        <v>49064.94472854436</v>
       </c>
       <c r="K3" t="n">
-        <v>40638.73104112937</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55419.25877810593</v>
+        <v>13232.19502157049</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341477</v>
+        <v>147427.4683834175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13649.17455297509</v>
+        <v>10637.53658444007</v>
       </c>
       <c r="C4" t="n">
-        <v>15515.03330562077</v>
+        <v>10637.53658444007</v>
       </c>
       <c r="D4" t="n">
-        <v>18583.86599059036</v>
+        <v>12820.08983453027</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.403102091461</v>
       </c>
       <c r="F4" t="n">
         <v>9770.403102091475</v>
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>75611.38525919239</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-573344.4213979291</v>
+        <v>-488711.1002405737</v>
       </c>
       <c r="C6" t="n">
-        <v>-39438.23547571807</v>
+        <v>102645.8022802713</v>
       </c>
       <c r="D6" t="n">
-        <v>-51746.66781344257</v>
+        <v>57083.5187749658</v>
       </c>
       <c r="E6" t="n">
-        <v>54321.33124363804</v>
+        <v>-335843.3159286838</v>
       </c>
       <c r="F6" t="n">
-        <v>236394.3110608288</v>
+        <v>239522.8814290838</v>
       </c>
       <c r="G6" t="n">
-        <v>236394.3110608286</v>
+        <v>239522.8814290834</v>
       </c>
       <c r="H6" t="n">
-        <v>236394.3110608288</v>
+        <v>239522.8814290836</v>
       </c>
       <c r="I6" t="n">
-        <v>236394.3110608288</v>
+        <v>239522.8814290836</v>
       </c>
       <c r="J6" t="n">
-        <v>167395.1566417144</v>
+        <v>190457.9367005392</v>
       </c>
       <c r="K6" t="n">
-        <v>195755.5800196994</v>
+        <v>239522.8814290838</v>
       </c>
       <c r="L6" t="n">
-        <v>180975.0522827227</v>
+        <v>226290.6864075131</v>
       </c>
       <c r="M6" t="n">
-        <v>188842.0452674139</v>
+        <v>92095.41304566612</v>
       </c>
       <c r="N6" t="n">
-        <v>236394.3110608286</v>
+        <v>239522.8814290835</v>
       </c>
       <c r="O6" t="n">
-        <v>236394.3110608285</v>
+        <v>239522.8814290836</v>
       </c>
       <c r="P6" t="n">
-        <v>236394.3110608289</v>
+        <v>239522.8814290836</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>749.98095649761</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>421.6151382819818</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>135.9259427281316</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184.0839356199292</v>
+        <v>45.00615942516015</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>496.300600255234</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>157.9012582804756</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>218.969693818057</v>
+        <v>52.2823609751849</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022537</v>
+        <v>591.5935072607881</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015066</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>157.9012582804753</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>218.9696938180572</v>
+        <v>52.28236097518479</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>591.5935072607883</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>157.9012582804756</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>218.969693818057</v>
+        <v>52.2823609751849</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>591.5935072607881</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.014998820090892</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>30.87735666625586</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J5" t="n">
-        <v>255.8942561066896</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>383.5191561611372</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>475.7894263014939</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>529.4074115682853</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>537.9737769658685</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>507.9933824485897</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P5" t="n">
-        <v>433.5605990775957</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.5859538330906</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>189.3909196325347</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>68.70428561282128</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>13.19815733494789</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.613166585674105</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>15.57979307743149</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J6" t="n">
-        <v>152.4088658859908</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>260.4910271261558</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
-        <v>350.2623325605112</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>408.7396212911974</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>419.5577428240734</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
-        <v>383.8133674257156</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P6" t="n">
-        <v>308.0440649433297</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.919299602891</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96386179969223</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.352424675651428</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H7" t="n">
-        <v>12.02428484351907</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I7" t="n">
-        <v>40.67109842777204</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>95.61642456855594</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1271577711386</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>201.0686649600314</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>211.9987152932506</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>206.9578596840045</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
-        <v>191.15908051844</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>163.5696171351508</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.2471244311391</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>123.3445726863776</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.84835158000331</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K5" t="n">
-        <v>163.4293051161566</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0230113315067</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0611783410126</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>308.5607133692776</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>277.895171026903</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>202.3276033223262</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.2802639586411</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.57123921932407</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>237.4432635501606</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.257244451883167</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>134.8576659452557</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>228.6586902203475</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>251.5825922550912</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N7" t="n">
-        <v>251.0900320632331</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O7" t="n">
-        <v>215.7442084324797</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P7" t="n">
-        <v>160.8481764000443</v>
+        <v>28.45844197068189</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.08508117944473</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>21.44873736705364</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>83.39712583292123</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>140.7360160012655</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>196.2971847393757</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>171.8879043605648</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>68.29072693268367</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620064</v>
+        <v>205.4003814606427</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>200.6633754067317</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>147.4099394863212</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
